--- a/resources/template/temp.xlsx
+++ b/resources/template/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="舆情信息项" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -84,6 +84,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -97,23 +104,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,23 +134,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,16 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,46 +217,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,37 +256,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,25 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,25 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,85 +430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,17 +465,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,15 +562,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,149 +582,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -732,7 +729,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,68 +1092,68 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.3796296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3796296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="39.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.8796296296296" customWidth="1"/>
-    <col min="14" max="14" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.3833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="39.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:14">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1152,12 +1161,13 @@
   <sortState ref="A2:M16">
     <sortCondition ref="C2:C16"/>
   </sortState>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2:L1048576">
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1 L1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"正面,中性,负面"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"正面,中性,负面"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1171,20 +1181,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/resources/template/temp.xlsx
+++ b/resources/template/temp.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="舆情信息项" sheetId="1" r:id="rId1"/>
     <sheet name="舆情附件" sheetId="2" r:id="rId2"/>
+    <sheet name="微博微信" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>舆情标题</t>
   </si>
@@ -63,6 +64,21 @@
   </si>
   <si>
     <t>附件2名称</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>公众号</t>
+  </si>
+  <si>
+    <t>关注</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -70,18 +86,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -105,14 +127,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,120 +268,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -256,13 +278,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,13 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,49 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,79 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,39 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -513,6 +502,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,15 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +554,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,19 +604,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -604,136 +626,133 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,7 +760,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,64 +1127,64 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.3833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.3833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="39.75" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.3796296296296" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.3796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="39.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.8796296296296" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1181,21 +1212,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1203,4 +1234,54 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.1111111111111" defaultRowHeight="28" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="18.1111111111111" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/resources/template/temp.xlsx
+++ b/resources/template/temp.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="舆情信息项" sheetId="1" r:id="rId1"/>
     <sheet name="舆情附件" sheetId="2" r:id="rId2"/>
-    <sheet name="微博微信" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>舆情标题</t>
   </si>
@@ -64,21 +63,6 @@
   </si>
   <si>
     <t>附件2名称</t>
-  </si>
-  <si>
-    <t>微博</t>
-  </si>
-  <si>
-    <t>公众号</t>
-  </si>
-  <si>
-    <t>关注</t>
-  </si>
-  <si>
-    <t>文章</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -86,24 +70,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -127,15 +105,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +167,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,99 +217,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -278,19 +256,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,163 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +465,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,26 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,6 +524,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,33 +554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,19 +582,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -626,133 +604,136 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,19 +741,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1127,64 +1096,64 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="26.3796296296296" style="9" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.3796296296296" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.6296296296296" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="39.75" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8" style="5" customWidth="1"/>
-    <col min="13" max="13" width="29.8796296296296" style="5" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.3833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.6333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" style="2" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="39.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:14">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1212,21 +1181,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1234,54 +1203,4 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.1111111111111" defaultRowHeight="28" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="16384" width="18.1111111111111" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/resources/template/temp.xlsx
+++ b/resources/template/temp.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="舆情信息项" sheetId="1" r:id="rId1"/>
     <sheet name="舆情附件" sheetId="2" r:id="rId2"/>
+    <sheet name="微博微信" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>舆情标题</t>
   </si>
@@ -63,6 +64,21 @@
   </si>
   <si>
     <t>附件2名称</t>
+  </si>
+  <si>
+    <t>微博</t>
+  </si>
+  <si>
+    <t>公众号</t>
+  </si>
+  <si>
+    <t>关注</t>
+  </si>
+  <si>
+    <t>文章</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -70,18 +86,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -105,13 +127,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -119,10 +163,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -133,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -140,108 +223,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,55 +278,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,49 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,85 +462,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,8 +505,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,7 +530,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +546,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,9 +567,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +593,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,166 +619,175 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,64 +1142,64 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="34.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="26.3833333333333" style="6" customWidth="1"/>
-    <col min="3" max="3" width="32.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.3833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.6333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="39.75" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" customWidth="1"/>
-    <col min="13" max="13" width="29.8833333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.3796296296296" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.3796296296296" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="5" customWidth="1"/>
+    <col min="9" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="39.75" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8" style="5" customWidth="1"/>
+    <col min="13" max="13" width="29.8796296296296" style="5" customWidth="1"/>
+    <col min="14" max="14" width="30.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1181,21 +1227,21 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="53.25" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1203,4 +1249,54 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.1111111111111" defaultRowHeight="28" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="18.1111111111111" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/resources/template/temp.xlsx
+++ b/resources/template/temp.xlsx
@@ -66,10 +66,10 @@
     <t>附件2名称</t>
   </si>
   <si>
+    <t>公众号</t>
+  </si>
+  <si>
     <t>微博</t>
-  </si>
-  <si>
-    <t>公众号</t>
   </si>
   <si>
     <t>关注</t>
@@ -86,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -126,6 +126,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -134,7 +163,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,56 +238,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -208,62 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,15 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -528,9 +519,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,32 +539,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +566,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -607,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,134 +619,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.1111111111111" defaultRowHeight="28" customHeight="1" outlineLevelRow="3" outlineLevelCol="2"/>
